--- a/Model s expanded Datasheetxlsx.xlsx
+++ b/Model s expanded Datasheetxlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BME\Önlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C355A4-5000-4247-9767-69669A1E3CB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD3F5D-C659-4D68-B666-CE2AF03EDADA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F544AF3-2DA1-4EBD-99E2-235C93F02A4E}"/>
+    <workbookView xWindow="5760" yWindow="3168" windowWidth="17280" windowHeight="8964" xr2:uid="{5F544AF3-2DA1-4EBD-99E2-235C93F02A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
   <si>
     <t>Model S 100D</t>
   </si>
@@ -384,6 +384,30 @@
   </si>
   <si>
     <t>500 km/h</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Extended range (8%)</t>
+  </si>
+  <si>
+    <t>Autopilot</t>
+  </si>
+  <si>
+    <t>$ 8000</t>
+  </si>
+  <si>
+    <t>$ 5000</t>
+  </si>
+  <si>
+    <t>$75 750</t>
+  </si>
+  <si>
+    <t>$102 750</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -446,7 +470,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -895,124 +919,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1022,148 +1241,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1482,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C34329-D8D0-4E8A-BEA0-82CA22A4C8DB}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="H1:L9"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,706 +1589,757 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="22" t="s">
+      <c r="A1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="83" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="36" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="81" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="78" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="78" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="78" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="77" t="s">
+      <c r="K5" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="78" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="62"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="78" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="79" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="80" t="s">
+      <c r="K9" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="28" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="29" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="29" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="29" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="30" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="65"/>
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="18" t="s">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="29" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="30" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53">
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="19">
         <v>0.24</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="20">
         <v>0.24</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="60" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="61" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="86" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="87"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="88" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="49" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="62" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="75" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42" t="s">
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="A33" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="92"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A33:B35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A10:C14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A15:B21"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
@@ -2211,34 +2349,6 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A15:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:C14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
